--- a/data/trans_orig/P05A06-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>699027</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>668605</v>
+        <v>665333</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>730691</v>
+        <v>731006</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6719892171319007</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6427446442196272</v>
+        <v>0.6395986073443931</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7024285198506335</v>
+        <v>0.7027313840693689</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>686</v>
@@ -764,19 +764,19 @@
         <v>743606</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>709116</v>
+        <v>709089</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>775500</v>
+        <v>774156</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6665268767148148</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6356118971739849</v>
+        <v>0.6355874612469005</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6951151660821666</v>
+        <v>0.6939101453305523</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1341</v>
@@ -785,19 +785,19 @@
         <v>1442633</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1397397</v>
+        <v>1397619</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1488869</v>
+        <v>1485821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6691625168443059</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.648179904736925</v>
+        <v>0.6482827493639612</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6906089427457363</v>
+        <v>0.6891954577911955</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>286722</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>256509</v>
+        <v>257066</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>319119</v>
+        <v>320164</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2756322092803178</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2465878535370974</v>
+        <v>0.247122584843562</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3067761833049748</v>
+        <v>0.307780768739654</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>284</v>
@@ -835,19 +835,19 @@
         <v>309141</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>279241</v>
+        <v>279987</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>339887</v>
+        <v>342097</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2770969871514187</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2502963224310043</v>
+        <v>0.2509649036112527</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3046554739744153</v>
+        <v>0.3066366813691033</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>552</v>
@@ -856,19 +856,19 @@
         <v>595864</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>552498</v>
+        <v>554662</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>643379</v>
+        <v>639287</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2763902155035389</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2562752030812149</v>
+        <v>0.2572789158442104</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2984301877332904</v>
+        <v>0.2965320743144662</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>54486</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40139</v>
+        <v>40772</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>70553</v>
+        <v>71252</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05237857358778146</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03858641317550212</v>
+        <v>0.03919472375806126</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06782443759111216</v>
+        <v>0.06849643846799494</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>58</v>
@@ -906,19 +906,19 @@
         <v>62896</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>47874</v>
+        <v>48991</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>80807</v>
+        <v>81242</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05637613613376652</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04291177933343871</v>
+        <v>0.04391253337377209</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07243084629543328</v>
+        <v>0.07282109022151424</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>109</v>
@@ -927,19 +927,19 @@
         <v>117382</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>95668</v>
+        <v>97786</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>140014</v>
+        <v>141706</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05444726765215515</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04437558342078839</v>
+        <v>0.04535791575277077</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0649454633846</v>
+        <v>0.06573010049684649</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>712370</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>685962</v>
+        <v>683518</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>740088</v>
+        <v>739067</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7327428038506765</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7055804403167238</v>
+        <v>0.703066080135388</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7612534565930936</v>
+        <v>0.7602040379005447</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>716</v>
@@ -1052,19 +1052,19 @@
         <v>768272</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>738471</v>
+        <v>735061</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>797801</v>
+        <v>799364</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7054381497062127</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6780743243731092</v>
+        <v>0.6749430007715669</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.732551474955712</v>
+        <v>0.7339869586949955</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1386</v>
@@ -1073,19 +1073,19 @@
         <v>1480642</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1438367</v>
+        <v>1434474</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1521371</v>
+        <v>1520367</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.718316385210251</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6978070930300677</v>
+        <v>0.6959186602907056</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.738075456764922</v>
+        <v>0.7375883458817827</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>230557</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>202015</v>
+        <v>205345</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>256289</v>
+        <v>257450</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2371507670396847</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2077925607666154</v>
+        <v>0.2112171863654571</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2636182413335379</v>
+        <v>0.2648133643515143</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>270</v>
@@ -1123,19 +1123,19 @@
         <v>290913</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>262674</v>
+        <v>262378</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>321583</v>
+        <v>322813</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2671201175396655</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2411907881634633</v>
+        <v>0.2409191104902073</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2952818268897149</v>
+        <v>0.2964115679230467</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>490</v>
@@ -1144,19 +1144,19 @@
         <v>521470</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>483050</v>
+        <v>480987</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>567915</v>
+        <v>566006</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2529850784507315</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2343461844947168</v>
+        <v>0.2333455459227291</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2755175973764129</v>
+        <v>0.2745913880577167</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>29269</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19502</v>
+        <v>19888</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41932</v>
+        <v>41288</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03010642910963877</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02006008770354603</v>
+        <v>0.02045693380231088</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04313154222172146</v>
+        <v>0.04246894785776714</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1194,19 +1194,19 @@
         <v>29886</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20494</v>
+        <v>19907</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42926</v>
+        <v>41258</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02744173275412176</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01881755164978037</v>
+        <v>0.01827856664505505</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03941508540644423</v>
+        <v>0.03788375057305274</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1215,19 +1215,19 @@
         <v>59155</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44990</v>
+        <v>46206</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76217</v>
+        <v>76468</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02869853633901751</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0218262421630672</v>
+        <v>0.02241649966088597</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03697578598101481</v>
+        <v>0.03709759258328398</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>636170</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>605949</v>
+        <v>607215</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>663364</v>
+        <v>662378</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.721490296619412</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6872159356438299</v>
+        <v>0.6886514526059269</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7523314518450355</v>
+        <v>0.7512128117918395</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>616</v>
@@ -1340,19 +1340,19 @@
         <v>658790</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>633775</v>
+        <v>632270</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>685408</v>
+        <v>682443</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7565178022325872</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7277915714965997</v>
+        <v>0.7260635829543474</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7870842075722414</v>
+        <v>0.7836789450763656</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1209</v>
@@ -1361,19 +1361,19 @@
         <v>1294961</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1258431</v>
+        <v>1257798</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1328977</v>
+        <v>1331247</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7388948669110703</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7180511240663969</v>
+        <v>0.7176900064776076</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7583045885555597</v>
+        <v>0.7595999149759413</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>220743</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>194492</v>
+        <v>195975</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>248494</v>
+        <v>248064</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2503482274894013</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2205763041103957</v>
+        <v>0.222257701871188</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2818201865658225</v>
+        <v>0.2813329697140883</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>186</v>
@@ -1411,19 +1411,19 @@
         <v>197295</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>172168</v>
+        <v>174302</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>221831</v>
+        <v>224250</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2265623569229596</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1977081394410033</v>
+        <v>0.2001589457977826</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2547382052676918</v>
+        <v>0.2575161447925902</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>396</v>
@@ -1432,19 +1432,19 @@
         <v>418038</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>385061</v>
+        <v>382503</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>454149</v>
+        <v>457340</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2385294339734221</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2197127068746348</v>
+        <v>0.2182532956924028</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.259134295824292</v>
+        <v>0.2609545860996372</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>24831</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16157</v>
+        <v>16133</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36167</v>
+        <v>35731</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02816147589118664</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01832399803155727</v>
+        <v>0.01829717422049885</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04101743410602219</v>
+        <v>0.04052297065833878</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -1482,19 +1482,19 @@
         <v>14734</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8722</v>
+        <v>7868</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25400</v>
+        <v>24535</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01691984084445316</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01001559376163542</v>
+        <v>0.009035023243706168</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02916781532252769</v>
+        <v>0.02817473049747167</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>38</v>
@@ -1503,19 +1503,19 @@
         <v>39565</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>28533</v>
+        <v>27446</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>55147</v>
+        <v>53339</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02257569911550758</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01628048676367205</v>
+        <v>0.01566043330044455</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03146629289847681</v>
+        <v>0.03043475276198627</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>367921</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>348309</v>
+        <v>346596</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>389976</v>
+        <v>388692</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7441795327245492</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.704511185888443</v>
+        <v>0.7010470610486099</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7887902761974999</v>
+        <v>0.7861924765744629</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>298</v>
@@ -1628,19 +1628,19 @@
         <v>328268</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>307284</v>
+        <v>308713</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>346684</v>
+        <v>346078</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.733165768412441</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6863011854236313</v>
+        <v>0.689491940987438</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7742985833390936</v>
+        <v>0.77294501458621</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>639</v>
@@ -1649,19 +1649,19 @@
         <v>696189</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>664078</v>
+        <v>667325</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>723466</v>
+        <v>725913</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7389453718875579</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7048625761451539</v>
+        <v>0.7083091799868669</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7678985291828002</v>
+        <v>0.7704957078763639</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>101864</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>83125</v>
+        <v>84304</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>123203</v>
+        <v>122835</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2060368825626001</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1681344914732518</v>
+        <v>0.1705183572039122</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.249197239236187</v>
+        <v>0.2484531652232683</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>100</v>
@@ -1699,19 +1699,19 @@
         <v>108614</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>89440</v>
+        <v>92869</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>127141</v>
+        <v>128743</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2425836410093277</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1997578268115306</v>
+        <v>0.2074166293445452</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2839614522293435</v>
+        <v>0.2875390640909056</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>194</v>
@@ -1720,19 +1720,19 @@
         <v>210479</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>184858</v>
+        <v>183509</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>238880</v>
+        <v>238680</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.223405295973312</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1962109885694258</v>
+        <v>0.1947791462474162</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2535510365248201</v>
+        <v>0.2533389925776586</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>24613</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14393</v>
+        <v>15677</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>37855</v>
+        <v>38160</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04978358471285078</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02911151670417767</v>
+        <v>0.0317097232434845</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0765688130397285</v>
+        <v>0.07718514909494174</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -1770,19 +1770,19 @@
         <v>10858</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5332</v>
+        <v>5095</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>20468</v>
+        <v>19770</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02425059057823137</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0119082116124883</v>
+        <v>0.01137982450382092</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04571422340144156</v>
+        <v>0.04415564339198528</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>31</v>
@@ -1791,19 +1791,19 @@
         <v>35471</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23977</v>
+        <v>24949</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>51109</v>
+        <v>49519</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03764933213913009</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02544984693679097</v>
+        <v>0.02648089530418826</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05424770040955529</v>
+        <v>0.05255978494494151</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>2415488</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2364725</v>
+        <v>2357470</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2471833</v>
+        <v>2467757</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7128330851373583</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6978526465768119</v>
+        <v>0.6957114078621729</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.729461078123695</v>
+        <v>0.7282583522891739</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2316</v>
@@ -1916,19 +1916,19 @@
         <v>2498936</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2443191</v>
+        <v>2445032</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2555092</v>
+        <v>2560311</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7092655045064263</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.69344367609446</v>
+        <v>0.6939660828692642</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.725204183817434</v>
+        <v>0.7266853066977447</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4575</v>
@@ -1937,19 +1937,19 @@
         <v>4914424</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4837126</v>
+        <v>4836883</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4995660</v>
+        <v>4995800</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7110145322476488</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.699831211440225</v>
+        <v>0.6997959527138017</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7227677296791466</v>
+        <v>0.7227879695807211</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>839887</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>789069</v>
+        <v>788087</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>889014</v>
+        <v>891271</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2478584833434387</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2328616351875214</v>
+        <v>0.2325717983297329</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2623564150161768</v>
+        <v>0.263022319316732</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>840</v>
@@ -1987,19 +1987,19 @@
         <v>905963</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>854481</v>
+        <v>845457</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>964016</v>
+        <v>952980</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2571368394950866</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2425247757528063</v>
+        <v>0.2399634298226244</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2736136957455422</v>
+        <v>0.270481492180531</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1632</v>
@@ -2008,19 +2008,19 @@
         <v>1745850</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1669633</v>
+        <v>1670479</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1821580</v>
+        <v>1818858</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2525880698999523</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2415610966817716</v>
+        <v>0.2416834719386658</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2635446539334595</v>
+        <v>0.2631507896097423</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>133200</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>112267</v>
+        <v>111472</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>157912</v>
+        <v>156927</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03930843151920296</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03313092399566573</v>
+        <v>0.03289645660689793</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04660136226515654</v>
+        <v>0.04631067968659214</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>111</v>
@@ -2058,19 +2058,19 @@
         <v>118374</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>98794</v>
+        <v>97463</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>142676</v>
+        <v>141550</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03359765599848705</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02804033786515555</v>
+        <v>0.02766259102551232</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04049524086850417</v>
+        <v>0.04017572227069823</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>236</v>
@@ -2079,19 +2079,19 @@
         <v>251573</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>221526</v>
+        <v>222394</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>284527</v>
+        <v>287024</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03639739785239898</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03205024947525102</v>
+        <v>0.03217581006225836</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04116518186961982</v>
+        <v>0.04152643008948253</v>
       </c>
     </row>
     <row r="23">
@@ -2423,19 +2423,19 @@
         <v>811887</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>780747</v>
+        <v>785377</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>842973</v>
+        <v>844909</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7243862885284319</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6966022580252884</v>
+        <v>0.7007335727098192</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7521216603670084</v>
+        <v>0.7538496008392985</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>857</v>
@@ -2444,19 +2444,19 @@
         <v>907435</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>875196</v>
+        <v>875149</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>939327</v>
+        <v>940046</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7247496648997181</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6990012313001407</v>
+        <v>0.6989629995599295</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7502211152356365</v>
+        <v>0.7507953330139707</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1621</v>
@@ -2465,19 +2465,19 @@
         <v>1719322</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1675369</v>
+        <v>1677219</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1763467</v>
+        <v>1760435</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7245780283186553</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7060549290722709</v>
+        <v>0.7068345416921897</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7431818964212085</v>
+        <v>0.7419044808784206</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>254662</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>227276</v>
+        <v>225970</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>283386</v>
+        <v>280224</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2272157897906428</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2027813052854049</v>
+        <v>0.2016162198056537</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2528441056901296</v>
+        <v>0.2500232762197148</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>261</v>
@@ -2515,19 +2515,19 @@
         <v>278548</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>248553</v>
+        <v>247581</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>310154</v>
+        <v>308772</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2224707909374243</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1985143727706633</v>
+        <v>0.1977374513408049</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2477139234471735</v>
+        <v>0.2466095741687146</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>503</v>
@@ -2536,19 +2536,19 @@
         <v>533210</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>495976</v>
+        <v>493821</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>574935</v>
+        <v>575277</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2247120356761267</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2090204230490104</v>
+        <v>0.2081119957610855</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.242296184732345</v>
+        <v>0.2424402729944386</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>54244</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41453</v>
+        <v>41490</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68099</v>
+        <v>70762</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0483979216809253</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03698541496437135</v>
+        <v>0.03701887079073563</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06075964795210756</v>
+        <v>0.06313522462881029</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>63</v>
@@ -2586,19 +2586,19 @@
         <v>66084</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>51945</v>
+        <v>49639</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>82791</v>
+        <v>84385</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05277954416285754</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04148755220452305</v>
+        <v>0.03964536740268663</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06612333354515189</v>
+        <v>0.06739635746729992</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>116</v>
@@ -2607,19 +2607,19 @@
         <v>120328</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>98599</v>
+        <v>99679</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>142604</v>
+        <v>141587</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05070993600521805</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04155289320072566</v>
+        <v>0.04200788168224926</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06009795470188109</v>
+        <v>0.05966953362080847</v>
       </c>
     </row>
     <row r="7">
@@ -2711,19 +2711,19 @@
         <v>667671</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>642110</v>
+        <v>642363</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>695246</v>
+        <v>695433</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7380018669005871</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7097482173783135</v>
+        <v>0.7100282658078284</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7684811465046011</v>
+        <v>0.7686887290879808</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>702</v>
@@ -2732,19 +2732,19 @@
         <v>740832</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>712368</v>
+        <v>710175</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>768610</v>
+        <v>766874</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7449514626002742</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7163293588214183</v>
+        <v>0.7141240186845458</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7728844548737104</v>
+        <v>0.7711388210239962</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1347</v>
@@ -2753,19 +2753,19 @@
         <v>1408502</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1366871</v>
+        <v>1368788</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1446638</v>
+        <v>1444228</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7416409100122896</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7197203591671743</v>
+        <v>0.7207298395404642</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7617212887923268</v>
+        <v>0.7604521432762257</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>207197</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>181557</v>
+        <v>182051</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>232293</v>
+        <v>232226</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2290229384789348</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2006821623847312</v>
+        <v>0.2012283531221516</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2567625095407459</v>
+        <v>0.2566883682501652</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>214</v>
@@ -2803,19 +2803,19 @@
         <v>228216</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>200325</v>
+        <v>202380</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>254602</v>
+        <v>255558</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2294846200067211</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2014390943774388</v>
+        <v>0.2035052130290593</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2560174274121925</v>
+        <v>0.2569791756080923</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>416</v>
@@ -2824,19 +2824,19 @@
         <v>435413</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>397298</v>
+        <v>400353</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>473953</v>
+        <v>473206</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2292646905255419</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2091955446044773</v>
+        <v>0.2108042266845623</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2495577670986696</v>
+        <v>0.2491645578562052</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>29833</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20421</v>
+        <v>20322</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42137</v>
+        <v>41099</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03297519462047806</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02257211457474227</v>
+        <v>0.02246303648396189</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0465755622161295</v>
+        <v>0.04542874434914828</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -2874,19 +2874,19 @@
         <v>25423</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16814</v>
+        <v>17041</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36893</v>
+        <v>37131</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02556391739300469</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01690707484449518</v>
+        <v>0.01713535334219368</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03709788778239666</v>
+        <v>0.03733767415582476</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -2895,19 +2895,19 @@
         <v>55255</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43259</v>
+        <v>42205</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73210</v>
+        <v>71492</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02909439946216853</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02277758841773567</v>
+        <v>0.02222295725199204</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03854819116682744</v>
+        <v>0.0376440354415754</v>
       </c>
     </row>
     <row r="11">
@@ -2999,19 +2999,19 @@
         <v>670984</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>646460</v>
+        <v>646656</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>692927</v>
+        <v>692181</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.817518169658207</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7876393338496905</v>
+        <v>0.787877429757339</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8442537331484106</v>
+        <v>0.8433451319274423</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>600</v>
@@ -3020,19 +3020,19 @@
         <v>632523</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>608410</v>
+        <v>611485</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>651282</v>
+        <v>653816</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8257007906638505</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7942234223577428</v>
+        <v>0.7982378209144785</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.850189030416069</v>
+        <v>0.8534963999841928</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1242</v>
@@ -3041,19 +3041,19 @@
         <v>1303507</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1273749</v>
+        <v>1270775</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1335355</v>
+        <v>1331663</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8214684101912811</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8027151704747443</v>
+        <v>0.8008406090524741</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8415392597420098</v>
+        <v>0.8392121166285761</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>136576</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>115628</v>
+        <v>114775</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>161868</v>
+        <v>159998</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1664018790243708</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1408796037537929</v>
+        <v>0.1398407615303194</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1972176404020613</v>
+        <v>0.1949389516118724</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>113</v>
@@ -3091,19 +3091,19 @@
         <v>121763</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>102261</v>
+        <v>100603</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>144174</v>
+        <v>143250</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1589504165315737</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1334922563159786</v>
+        <v>0.1313273867589005</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1882055924485753</v>
+        <v>0.1869994468901219</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>243</v>
@@ -3112,19 +3112,19 @@
         <v>258339</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>228682</v>
+        <v>229959</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>288331</v>
+        <v>289840</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1628046124334548</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1441150842003865</v>
+        <v>0.144919895282459</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1817056346028429</v>
+        <v>0.1826569098847035</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>13198</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6739</v>
+        <v>6766</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22554</v>
+        <v>22444</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01607995131742223</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008211085281317946</v>
+        <v>0.008244197472607975</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02747894802460954</v>
+        <v>0.02734536448573995</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -3162,19 +3162,19 @@
         <v>11758</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6059</v>
+        <v>5802</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22116</v>
+        <v>20425</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01534879280457583</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007909767631044862</v>
+        <v>0.007573615948126865</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0288710081782616</v>
+        <v>0.02666234621398896</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -3183,19 +3183,19 @@
         <v>24956</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16226</v>
+        <v>15813</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38216</v>
+        <v>37178</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01572697737526407</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01022585106936297</v>
+        <v>0.009965417816524807</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02408348049889233</v>
+        <v>0.02342970410588264</v>
       </c>
     </row>
     <row r="15">
@@ -3287,19 +3287,19 @@
         <v>400342</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>380869</v>
+        <v>380818</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>417986</v>
+        <v>418696</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.79543503696544</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7567438148052487</v>
+        <v>0.7566423193619447</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8304915220319281</v>
+        <v>0.8319022375691909</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>355</v>
@@ -3308,19 +3308,19 @@
         <v>379029</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>359465</v>
+        <v>358061</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>398364</v>
+        <v>396530</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7831330899172948</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7427103962933327</v>
+        <v>0.7398102173308601</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8230806313640808</v>
+        <v>0.8192923809983423</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>728</v>
@@ -3329,19 +3329,19 @@
         <v>779372</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>749073</v>
+        <v>750821</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>805667</v>
+        <v>805647</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.789404363461282</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.758715640609346</v>
+        <v>0.7604861493900092</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8160383566832496</v>
+        <v>0.8160174492625134</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>83677</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>67191</v>
+        <v>67108</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>101189</v>
+        <v>101200</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1662560711467367</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1335010576676822</v>
+        <v>0.1333351971585881</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2010508754470913</v>
+        <v>0.20107386827226</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>82</v>
@@ -3379,19 +3379,19 @@
         <v>88856</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>71576</v>
+        <v>70711</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>105790</v>
+        <v>107651</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1835902012200626</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1478870675997043</v>
+        <v>0.1461008433437878</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2185776142186573</v>
+        <v>0.2224243535669873</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>161</v>
@@ -3400,19 +3400,19 @@
         <v>172533</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>148887</v>
+        <v>148718</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>198396</v>
+        <v>196507</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1747536267403121</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1508036756089028</v>
+        <v>0.150632191938499</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2009495357274261</v>
+        <v>0.1990369870235672</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>19281</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11146</v>
+        <v>11734</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29892</v>
+        <v>31248</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03830889188782326</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02214551858366996</v>
+        <v>0.02331313840030217</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05939108482554224</v>
+        <v>0.06208660088992717</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -3450,19 +3450,19 @@
         <v>16106</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9234</v>
+        <v>8621</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27593</v>
+        <v>27177</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03327670886264262</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01907810929822649</v>
+        <v>0.0178118423444657</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05701116281085166</v>
+        <v>0.05615227267929042</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>29</v>
@@ -3471,19 +3471,19 @@
         <v>35386</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23814</v>
+        <v>23991</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>50891</v>
+        <v>49793</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03584200979840586</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02412075925823406</v>
+        <v>0.02429944154131956</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05154655023801442</v>
+        <v>0.05043350317245286</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>2550884</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2494910</v>
+        <v>2497838</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2598637</v>
+        <v>2595865</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7615600936966916</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7448491425486161</v>
+        <v>0.7457231424781045</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7758166031522529</v>
+        <v>0.7749889723033629</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2514</v>
@@ -3596,19 +3596,19 @@
         <v>2659820</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2606873</v>
+        <v>2602112</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2706368</v>
+        <v>2708478</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7606934750857274</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7455510082179548</v>
+        <v>0.7441895273619623</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7740060281403075</v>
+        <v>0.7746095871513945</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4938</v>
@@ -3617,19 +3617,19 @@
         <v>5210704</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5139746</v>
+        <v>5133257</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5275159</v>
+        <v>5284650</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7611174790434827</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7507528700258363</v>
+        <v>0.7498049388085414</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7705323782914355</v>
+        <v>0.7719187181427191</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>682111</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>634650</v>
+        <v>639290</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>732553</v>
+        <v>733800</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2036426065029256</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1894732515058739</v>
+        <v>0.1908583859438169</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2187018234377152</v>
+        <v>0.2190742850814991</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>670</v>
@@ -3667,19 +3667,19 @@
         <v>717383</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>672215</v>
+        <v>671163</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>767417</v>
+        <v>770383</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2051674987480063</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1922495823500314</v>
+        <v>0.1919488958842246</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2194769871893393</v>
+        <v>0.2203251429034551</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1323</v>
@@ -3688,19 +3688,19 @@
         <v>1399494</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1338211</v>
+        <v>1332699</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1471047</v>
+        <v>1471895</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2044214262094243</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1954699032146407</v>
+        <v>0.1946648159526445</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2148729833079241</v>
+        <v>0.2149968009746001</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>116555</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>96272</v>
+        <v>98384</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>139283</v>
+        <v>140437</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03479729980038269</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.028741816531421</v>
+        <v>0.02937233467311102</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04158270908489817</v>
+        <v>0.04192702462624921</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>110</v>
@@ -3738,19 +3738,19 @@
         <v>119370</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>98033</v>
+        <v>97626</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>142285</v>
+        <v>142691</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03413902616626632</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02803694480964695</v>
+        <v>0.02792050830760878</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04069263263275026</v>
+        <v>0.04080885001493235</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>221</v>
@@ -3759,19 +3759,19 @@
         <v>235925</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>204057</v>
+        <v>203850</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>266831</v>
+        <v>268877</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03446109474709305</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02980622914116372</v>
+        <v>0.02977603122991097</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03897542837818527</v>
+        <v>0.03927430063927725</v>
       </c>
     </row>
     <row r="23">
@@ -4103,19 +4103,19 @@
         <v>338857</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>315064</v>
+        <v>313620</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>361351</v>
+        <v>362219</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6847222964723071</v>
+        <v>0.684722296472307</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6366453123276431</v>
+        <v>0.6337263874585619</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7301761850385684</v>
+        <v>0.7319296916087021</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>602</v>
@@ -4124,19 +4124,19 @@
         <v>421702</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>400717</v>
+        <v>398608</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>442747</v>
+        <v>442495</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6770287109714821</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6433379861610951</v>
+        <v>0.6399509632739475</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7108149544677863</v>
+        <v>0.7104108130506431</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>912</v>
@@ -4145,19 +4145,19 @@
         <v>760559</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>727856</v>
+        <v>730509</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>790471</v>
+        <v>790155</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6804350209373504</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6511769256601412</v>
+        <v>0.6535504721592067</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.707195596690986</v>
+        <v>0.7069135360793307</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>89270</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70891</v>
+        <v>70967</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>110331</v>
+        <v>108811</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1803861457315552</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1432483138194802</v>
+        <v>0.1434020345928617</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2229430533598785</v>
+        <v>0.2198732604121456</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>163</v>
@@ -4195,19 +4195,19 @@
         <v>120483</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>105150</v>
+        <v>103393</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>139199</v>
+        <v>141767</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1934310784004333</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1688146964198965</v>
+        <v>0.1659933230244106</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2234795942406459</v>
+        <v>0.2276029200785544</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>245</v>
@@ -4216,19 +4216,19 @@
         <v>209753</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>184583</v>
+        <v>186574</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>236049</v>
+        <v>238125</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1876554768750698</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1651377078615175</v>
+        <v>0.1669187609191362</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2111815120626512</v>
+        <v>0.2130391335715095</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>66755</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49765</v>
+        <v>51504</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>83394</v>
+        <v>85708</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1348915577961377</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1005594527987706</v>
+        <v>0.1040741818478325</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1685123396807009</v>
+        <v>0.1731892834942826</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>95</v>
@@ -4266,19 +4266,19 @@
         <v>80687</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>65475</v>
+        <v>65994</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>98907</v>
+        <v>98894</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1295402106280846</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1051182269632448</v>
+        <v>0.1059504183028765</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1587916974152099</v>
+        <v>0.1587709512560261</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>154</v>
@@ -4287,19 +4287,19 @@
         <v>147442</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>126723</v>
+        <v>123287</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>171785</v>
+        <v>171434</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1319095021875799</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1133730363965412</v>
+        <v>0.1102985472103448</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.153687529904207</v>
+        <v>0.1533740678648759</v>
       </c>
     </row>
     <row r="7">
@@ -4391,19 +4391,19 @@
         <v>787259</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>759358</v>
+        <v>759266</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>813965</v>
+        <v>813997</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8209130012299432</v>
+        <v>0.8209130012299434</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7918193227627471</v>
+        <v>0.7917231776008233</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8487606563732888</v>
+        <v>0.8487945065657274</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1326</v>
@@ -4412,19 +4412,19 @@
         <v>896551</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>868840</v>
+        <v>871485</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>917865</v>
+        <v>920390</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8063798921537674</v>
+        <v>0.8063798921537672</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7814560176522527</v>
+        <v>0.7838347073542637</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8255505962164454</v>
+        <v>0.8278216225214174</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2083</v>
@@ -4433,19 +4433,19 @@
         <v>1683810</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1646315</v>
+        <v>1644837</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1721082</v>
+        <v>1718779</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8131102055231831</v>
+        <v>0.813110205523183</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7950039133438404</v>
+        <v>0.7942903683290844</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8311087828317115</v>
+        <v>0.8299966066538593</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>130552</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>107431</v>
+        <v>109498</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>154873</v>
+        <v>155563</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.13613326304163</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1120235033038798</v>
+        <v>0.1141791136079845</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1614940380803273</v>
+        <v>0.1622133502895571</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>222</v>
@@ -4483,19 +4483,19 @@
         <v>176102</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>155742</v>
+        <v>155045</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>201459</v>
+        <v>199861</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1583901166959026</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1400782362197454</v>
+        <v>0.1394508986084327</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1811969803290707</v>
+        <v>0.179759943316032</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>340</v>
@@ -4504,19 +4504,19 @@
         <v>306654</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>272505</v>
+        <v>273407</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>341230</v>
+        <v>339194</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1480829209729968</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1315923582359675</v>
+        <v>0.1320278896946645</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1647798649690483</v>
+        <v>0.1637963061190067</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>41193</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27974</v>
+        <v>28034</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57586</v>
+        <v>59817</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04295373572842677</v>
+        <v>0.04295373572842678</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0291701978890249</v>
+        <v>0.02923279941760579</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06004758934168007</v>
+        <v>0.06237422485613878</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -4554,19 +4554,19 @@
         <v>39169</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28772</v>
+        <v>29457</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49964</v>
+        <v>50567</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03522999115033029</v>
+        <v>0.03522999115033028</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02587779939979871</v>
+        <v>0.0264946552254495</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04493868644431977</v>
+        <v>0.04548123445818879</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>87</v>
@@ -4575,19 +4575,19 @@
         <v>80362</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63352</v>
+        <v>62461</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100826</v>
+        <v>100226</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0388068735038201</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03059278515021261</v>
+        <v>0.03016238515450824</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0486887158091048</v>
+        <v>0.04839894240127018</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>940952</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>916915</v>
+        <v>917402</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>959416</v>
+        <v>961186</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9018545122392675</v>
+        <v>0.9018545122392674</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8788168226294548</v>
+        <v>0.8792830727677212</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9195519488827416</v>
+        <v>0.9212482429235874</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1347</v>
@@ -4700,19 +4700,19 @@
         <v>925494</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>907320</v>
+        <v>907159</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>944443</v>
+        <v>943541</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8848899152856735</v>
+        <v>0.8848899152856736</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8675128406325948</v>
+        <v>0.8673597443495179</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9030077253461376</v>
+        <v>0.9021451375419813</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2278</v>
@@ -4721,19 +4721,19 @@
         <v>1866446</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1835767</v>
+        <v>1835313</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1894629</v>
+        <v>1891263</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8933619282568843</v>
+        <v>0.8933619282568844</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8786776001224064</v>
+        <v>0.8784602343436259</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9068514766835539</v>
+        <v>0.9052406355959646</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>95464</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77057</v>
+        <v>77322</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>120636</v>
+        <v>119886</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09149745270298607</v>
+        <v>0.09149745270298605</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07385506157170121</v>
+        <v>0.07410873841227601</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1156235181060788</v>
+        <v>0.1149042052828265</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>138</v>
@@ -4771,19 +4771,19 @@
         <v>95199</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>80170</v>
+        <v>80613</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111901</v>
+        <v>112231</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09102240708200092</v>
+        <v>0.09102240708200091</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07665242483240593</v>
+        <v>0.07707636964826066</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1069918912776349</v>
+        <v>0.1073070548927023</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>225</v>
@@ -4792,19 +4792,19 @@
         <v>190663</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>164894</v>
+        <v>167405</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>217697</v>
+        <v>217794</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09125964187596107</v>
+        <v>0.0912596418759611</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07892548592669672</v>
+        <v>0.08012710633995988</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.10419908576157</v>
+        <v>0.1042458630847652</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>6936</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3304</v>
+        <v>3135</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14043</v>
+        <v>14898</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006648035057746571</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003166265488337011</v>
+        <v>0.003005082367654391</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01345985299144325</v>
+        <v>0.0142790199203666</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -4842,19 +4842,19 @@
         <v>25193</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16754</v>
+        <v>16548</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37762</v>
+        <v>37636</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02408767763232552</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01601915897032002</v>
+        <v>0.01582190912464757</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03610548585944955</v>
+        <v>0.03598457270878047</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>36</v>
@@ -4863,19 +4863,19 @@
         <v>32129</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21933</v>
+        <v>21376</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>45557</v>
+        <v>44688</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.01537842986715454</v>
+        <v>0.01537842986715455</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01049817313827954</v>
+        <v>0.01023136426128993</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02180567659431578</v>
+        <v>0.02138981129768118</v>
       </c>
     </row>
     <row r="15">
@@ -4967,19 +4967,19 @@
         <v>818369</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>791142</v>
+        <v>793604</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>841445</v>
+        <v>842217</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8396710951477988</v>
+        <v>0.8396710951477987</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8117351618659745</v>
+        <v>0.8142608557724728</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8633477674901621</v>
+        <v>0.8641388514824473</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1121</v>
@@ -4988,19 +4988,19 @@
         <v>759366</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>734853</v>
+        <v>737386</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>778894</v>
+        <v>779578</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8378078807539442</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8107625913025081</v>
+        <v>0.8135582316286748</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.859354090950351</v>
+        <v>0.8601083968178993</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1921</v>
@@ -5009,19 +5009,19 @@
         <v>1577735</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1541757</v>
+        <v>1546370</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1608581</v>
+        <v>1613154</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8387732949030411</v>
+        <v>0.8387732949030412</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8196461598622523</v>
+        <v>0.8220983989189133</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8551720487272304</v>
+        <v>0.8576029664894835</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>113662</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>95348</v>
+        <v>93845</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>136643</v>
+        <v>134693</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1166206765971112</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09783005193881848</v>
+        <v>0.09628805254358508</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1401995099799157</v>
+        <v>0.1381990778416453</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>162</v>
@@ -5059,19 +5059,19 @@
         <v>120859</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>103328</v>
+        <v>103238</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>144085</v>
+        <v>141184</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1333434661057402</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1140015842320078</v>
+        <v>0.1139019185555502</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1589687914061887</v>
+        <v>0.1557683875644374</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>273</v>
@@ -5080,19 +5080,19 @@
         <v>234521</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>206171</v>
+        <v>204042</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>263999</v>
+        <v>263396</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1246786459662808</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1096068778458874</v>
+        <v>0.1084752708712167</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1403503472654513</v>
+        <v>0.1400296173694112</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>42599</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>29606</v>
+        <v>28899</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>61597</v>
+        <v>60337</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04370822825509003</v>
+        <v>0.04370822825509002</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03037705850031598</v>
+        <v>0.0296508708268525</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06319986733398528</v>
+        <v>0.06190732556952733</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>35</v>
@@ -5130,19 +5130,19 @@
         <v>26148</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18181</v>
+        <v>18453</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>38731</v>
+        <v>38594</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02884865314031568</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02005878493860611</v>
+        <v>0.02035913424710621</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04273220687110778</v>
+        <v>0.04258033470124818</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>69</v>
@@ -5151,19 +5151,19 @@
         <v>68747</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>53923</v>
+        <v>52811</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>90810</v>
+        <v>89838</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03654805913067803</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02866699842568332</v>
+        <v>0.02807596320035669</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04827741471148637</v>
+        <v>0.04776081649870813</v>
       </c>
     </row>
     <row r="19">
@@ -5255,19 +5255,19 @@
         <v>2885437</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2835216</v>
+        <v>2835176</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2934270</v>
+        <v>2932115</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8310903564577327</v>
+        <v>0.8310903564577325</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8166254227228552</v>
+        <v>0.8166138537910667</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8451558221609156</v>
+        <v>0.8445349278805859</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4396</v>
@@ -5276,19 +5276,19 @@
         <v>3003113</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2959414</v>
+        <v>2956839</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3049395</v>
+        <v>3044003</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8145244943009463</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8026722364569324</v>
+        <v>0.8019737209829695</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8270775362570953</v>
+        <v>0.8256149395158452</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7194</v>
@@ -5297,19 +5297,19 @@
         <v>5888550</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5818413</v>
+        <v>5819168</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5952897</v>
+        <v>5958563</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8225585699783063</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8127614121788014</v>
+        <v>0.8128668688444229</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.831547098823143</v>
+        <v>0.8323386492703374</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>428948</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>389498</v>
+        <v>389270</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>476664</v>
+        <v>471271</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.123549692092249</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1121867793597981</v>
+        <v>0.1121210649247161</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1372932542483273</v>
+        <v>0.1357398120596089</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>685</v>
@@ -5347,19 +5347,19 @@
         <v>512642</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>470114</v>
+        <v>474154</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>549881</v>
+        <v>554666</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1390422942560291</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1275074674591354</v>
+        <v>0.1286033255475127</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1491424335287913</v>
+        <v>0.150440205173117</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1083</v>
@@ -5368,19 +5368,19 @@
         <v>941591</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>882806</v>
+        <v>879264</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1000340</v>
+        <v>1001311</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1315287258679178</v>
+        <v>0.1315287258679177</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1233172384042871</v>
+        <v>0.1228224927287504</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1397353274159514</v>
+        <v>0.139870950753978</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>157484</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>130487</v>
+        <v>129940</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>191235</v>
+        <v>187779</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04535995145001833</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0375840074874501</v>
+        <v>0.03742661261656488</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0550813827513817</v>
+        <v>0.05408583402292867</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>211</v>
@@ -5418,19 +5418,19 @@
         <v>171197</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>148020</v>
+        <v>148994</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>197391</v>
+        <v>196497</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04643321144302467</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04014705296468121</v>
+        <v>0.04041117964691902</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05353769392786028</v>
+        <v>0.05329527693891897</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>346</v>
@@ -5439,19 +5439,19 @@
         <v>328681</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>291612</v>
+        <v>294359</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>369924</v>
+        <v>371765</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04591270415377602</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04073460721617405</v>
+        <v>0.04111840841370552</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0516739150480433</v>
+        <v>0.05193096889310694</v>
       </c>
     </row>
     <row r="23">
